--- a/src/cukrovka.xlsx
+++ b/src/cukrovka.xlsx
@@ -7,28 +7,29 @@
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="662"/>
   </bookViews>
   <sheets>
-    <sheet name="CR" sheetId="2" r:id="rId1"/>
-    <sheet name="PHA" sheetId="3" r:id="rId2"/>
-    <sheet name="STC" sheetId="4" r:id="rId3"/>
-    <sheet name="JHC" sheetId="5" r:id="rId4"/>
-    <sheet name="PLK" sheetId="17" r:id="rId5"/>
-    <sheet name="KVK" sheetId="6" r:id="rId6"/>
-    <sheet name="ULK" sheetId="7" r:id="rId7"/>
-    <sheet name="LBK" sheetId="8" r:id="rId8"/>
-    <sheet name="HKK" sheetId="9" r:id="rId9"/>
-    <sheet name="PAK" sheetId="10" r:id="rId10"/>
-    <sheet name="VYS" sheetId="11" r:id="rId11"/>
-    <sheet name="JHM" sheetId="12" r:id="rId12"/>
-    <sheet name="OLK" sheetId="13" r:id="rId13"/>
-    <sheet name="ZLK" sheetId="14" r:id="rId14"/>
-    <sheet name="MSK" sheetId="15" r:id="rId15"/>
+    <sheet name="src" sheetId="18" r:id="rId1"/>
+    <sheet name="CR" sheetId="2" r:id="rId2"/>
+    <sheet name="PHA" sheetId="3" r:id="rId3"/>
+    <sheet name="STC" sheetId="4" r:id="rId4"/>
+    <sheet name="JHC" sheetId="5" r:id="rId5"/>
+    <sheet name="PLK" sheetId="17" r:id="rId6"/>
+    <sheet name="KVK" sheetId="6" r:id="rId7"/>
+    <sheet name="ULK" sheetId="7" r:id="rId8"/>
+    <sheet name="LBK" sheetId="8" r:id="rId9"/>
+    <sheet name="HKK" sheetId="9" r:id="rId10"/>
+    <sheet name="PAK" sheetId="10" r:id="rId11"/>
+    <sheet name="VYS" sheetId="11" r:id="rId12"/>
+    <sheet name="JHM" sheetId="12" r:id="rId13"/>
+    <sheet name="OLK" sheetId="13" r:id="rId14"/>
+    <sheet name="ZLK" sheetId="14" r:id="rId15"/>
+    <sheet name="MSK" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1141">
   <si>
     <t>Česká republika</t>
   </si>
@@ -3439,6 +3440,18 @@
   </si>
   <si>
     <t>14 608</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>diabetici</t>
+  </si>
+  <si>
+    <t>Hlavní město Praha</t>
+  </si>
+  <si>
+    <t>Rychnov nad Kněžnou</t>
   </si>
 </sst>
 </file>
@@ -4109,9 +4122,807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B2" t="str">
+        <f>PHA!G53</f>
+        <v>111 642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>STC!A47</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B3" t="str">
+        <f>STC!G47</f>
+        <v>5 646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>STC!A48</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B4" t="str">
+        <f>STC!G48</f>
+        <v>2 941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>STC!A49</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B5" t="str">
+        <f>STC!G49</f>
+        <v>12 522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>STC!A50</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B6" t="str">
+        <f>STC!G50</f>
+        <v>8 254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>STC!A51</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B7" t="str">
+        <f>STC!G51</f>
+        <v>5 007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>STC!A52</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B8" t="str">
+        <f>STC!G52</f>
+        <v>5 909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>STC!A53</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B9" t="str">
+        <f>STC!G53</f>
+        <v>6 921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>STC!A54</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B10" t="str">
+        <f>STC!G54</f>
+        <v>6 090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>STC!A55</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B11" t="str">
+        <f>STC!G55</f>
+        <v>6 982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>STC!A56</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B12" t="str">
+        <f>STC!G56</f>
+        <v>5 113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>STC!A57</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B13" t="str">
+        <f>STC!G57</f>
+        <v>12 376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>STC!A58</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B14" t="str">
+        <f>STC!G58</f>
+        <v>3 437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>JHC!A37</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B15" t="str">
+        <f>STC!G47</f>
+        <v>5 646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>JHC!A38</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B16" t="str">
+        <f>STC!G48</f>
+        <v>2 941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>JHC!A39</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B17" t="str">
+        <f>STC!G49</f>
+        <v>12 522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>JHC!A40</f>
+        <v>Písek</v>
+      </c>
+      <c r="B18" t="str">
+        <f>STC!G50</f>
+        <v>8 254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>JHC!A41</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B19" t="str">
+        <f>STC!G51</f>
+        <v>5 007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>JHC!A42</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B20" t="str">
+        <f>STC!G52</f>
+        <v>5 909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>JHC!A43</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B21" t="str">
+        <f>STC!G53</f>
+        <v>6 921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>PLK!A37</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B22" t="str">
+        <f>PLK!G37</f>
+        <v>4 790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>PLK!A38</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B23" t="str">
+        <f>PLK!G38</f>
+        <v>5 927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>PLK!A39</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B24" t="str">
+        <f>PLK!G39</f>
+        <v>6 262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>PLK!A40</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B25" t="str">
+        <f>PLK!G40</f>
+        <v>20 722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>PLK!A41</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B26" t="str">
+        <f>PLK!G41</f>
+        <v>2 829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>PLK!A42</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B27" t="str">
+        <f>PLK!G42</f>
+        <v>2 973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>PLK!A43</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B28" t="str">
+        <f>PLK!G43</f>
+        <v>4 658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>KVK!A29</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B29" t="str">
+        <f>KVK!G29</f>
+        <v>7 318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>KVK!A30</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B30" t="str">
+        <f>KVK!G30</f>
+        <v>9 802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>KVK!A31</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B31" t="str">
+        <f>KVK!G31</f>
+        <v>7 121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>ULK!A37</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B32" t="str">
+        <f>ULK!G37</f>
+        <v>13 654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>ULK!A38</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B33" t="str">
+        <f>ULK!G38</f>
+        <v>8 907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>ULK!A39</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" t="str">
+        <f>ULK!G39</f>
+        <v>6 775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>ULK!A40</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" t="str">
+        <f>ULK!G40</f>
+        <v>5 053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>ULK!A41</f>
+        <v>Most</v>
+      </c>
+      <c r="B36" t="str">
+        <f>ULK!G41</f>
+        <v>10 113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>ULK!A42</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B37" t="str">
+        <f>ULK!G42</f>
+        <v>13 953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>ULK!A43</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B38" t="str">
+        <f>ULK!G43</f>
+        <v>10 431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>LBK!A31</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B39" t="str">
+        <f>LBK!G31</f>
+        <v>8 960</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>LBK!A32</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B40" t="str">
+        <f>LBK!G32</f>
+        <v>5 291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>LBK!A33</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B41" t="str">
+        <f>LBK!G33</f>
+        <v>12 081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>LBK!A34</f>
+        <v>Semily</v>
+      </c>
+      <c r="B42" t="str">
+        <f>LBK!G34</f>
+        <v>5 628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>HKK!A33</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B43" t="str">
+        <f>HKK!G33</f>
+        <v>15 187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>HKK!A34</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B44" t="str">
+        <f>HKK!G34</f>
+        <v>7 690</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>HKK!A35</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B45" t="str">
+        <f>HKK!G35</f>
+        <v>8 324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>HKK!A36</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B46" t="str">
+        <f>HKK!G36</f>
+        <v>7 905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>HKK!A37</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B47" t="str">
+        <f>HKK!G37</f>
+        <v>11 698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>PAK!A31</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B48" t="str">
+        <f>PAK!G31</f>
+        <v>8 639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>PAK!A32</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B49" t="str">
+        <f>PAK!G32</f>
+        <v>10 715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>PAK!A33</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B50" t="str">
+        <f>PAK!G33</f>
+        <v>8 349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>PAK!A34</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B51" t="str">
+        <f>PAK!G34</f>
+        <v>10 015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>VYS!A33</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VYS!G33</f>
+        <v>8 086</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>VYS!A34</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VYS!G34</f>
+        <v>6 055</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>VYS!A35</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VYS!G35</f>
+        <v>7 285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>VYS!A36</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B55" t="str">
+        <f>VYS!G36</f>
+        <v>5 940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>VYS!A37</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B56" t="str">
+        <f>VYS!G37</f>
+        <v>10 233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>JHM!A37</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B57" t="str">
+        <f>JHM!G37</f>
+        <v>9 092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>JHM!A38</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B58" t="str">
+        <f>JHM!G38</f>
+        <v>32 765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>JHM!A39</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B59" t="str">
+        <f>JHM!G39</f>
+        <v>12 004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>JHM!A40</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B60" t="str">
+        <f>JHM!G40</f>
+        <v>9 219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>JHM!A41</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B61" t="str">
+        <f>JHM!G41</f>
+        <v>10 141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>JHM!A42</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B62" t="str">
+        <f>JHM!G42</f>
+        <v>5 987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>JHM!A43</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B63" t="str">
+        <f>JHM!G43</f>
+        <v>10 982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>OLK!A33</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B64" t="str">
+        <f>OLK!G33</f>
+        <v>3 588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>OLK!A34</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B65" t="str">
+        <f>OLK!G34</f>
+        <v>23 402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>OLK!A35</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B66" t="str">
+        <f>OLK!G35</f>
+        <v>7 482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>OLK!A36</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B67" t="str">
+        <f>OLK!G36</f>
+        <v>11 500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>OLK!A37</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B68" t="str">
+        <f>OLK!G37</f>
+        <v>11 857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>ZLK!A31</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B69" t="str">
+        <f>ZLK!G31</f>
+        <v>10 468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>ZLK!A32</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" t="str">
+        <f>ZLK!G32</f>
+        <v>11 798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>ZLK!A33</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B71" t="str">
+        <f>ZLK!G33</f>
+        <v>14 109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>ZLK!A34</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B72" t="str">
+        <f>ZLK!G34</f>
+        <v>25 238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>MSK!A35</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B73" t="str">
+        <f>MSK!G35</f>
+        <v>7 827</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>MSK!A36</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B74" t="str">
+        <f>MSK!G36</f>
+        <v>13 408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>MSK!A37</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B75" t="str">
+        <f>MSK!G37</f>
+        <v>26 341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>MSK!A38</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B76" t="str">
+        <f>MSK!G38</f>
+        <v>11 131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>MSK!A39</f>
+        <v>Opava</v>
+      </c>
+      <c r="B77" t="str">
+        <f>MSK!G39</f>
+        <v>8 591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>MSK!A40</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B78" t="str">
+        <f>MSK!G40</f>
+        <v>33 572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4134,7 +4945,7 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4150,8 +4961,8 @@
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>0</v>
+      <c r="B4" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -4166,7 +4977,7 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4174,7 +4985,7 @@
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4182,19 +4993,19 @@
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -4249,354 +5060,330 @@
       <c r="F14" s="20"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>134</v>
+        <v>101</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>501</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>135</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>140</v>
+        <v>102</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>505</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>141</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>146</v>
+        <v>103</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>509</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>147</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>152</v>
+        <v>104</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>513</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>158</v>
+        <v>105</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>482</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>164</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>170</v>
-      </c>
+      <c r="A21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>176</v>
+      <c r="A22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>181</v>
-      </c>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>185</v>
+        <v>101</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>692</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>186</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>191</v>
+        <v>102</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>697</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>192</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>197</v>
+        <v>103</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>732</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>198</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>202</v>
+        <v>104</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>395</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>203</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>207</v>
+        <v>105</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>559</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>208</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>213</v>
+      <c r="B29" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -4641,754 +5428,156 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>215</v>
+        <v>649</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>216</v>
+        <v>755</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>217</v>
+        <v>944</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>218</v>
+        <v>945</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>220</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>221</v>
+        <v>946</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>222</v>
+        <v>947</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>224</v>
+        <v>948</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>225</v>
+        <v>458</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>226</v>
+        <v>543</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>227</v>
+        <v>949</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>228</v>
+        <v>950</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>229</v>
+        <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>28</v>
+        <v>1140</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>231</v>
+        <v>952</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>232</v>
+        <v>953</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>233</v>
+        <v>954</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>234</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>235</v>
+        <v>426</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>236</v>
+        <v>856</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>237</v>
+        <v>956</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>238</v>
+        <v>507</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>239</v>
+        <v>957</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="G58" s="30" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B31:D31"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -5978,7 +6167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -6637,7 +6826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -7434,7 +7623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8093,7 +8282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -8683,7 +8872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -9413,9 +9602,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9438,6 +9629,1287 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B31:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="21" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
@@ -10415,11 +11887,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11557,11 +13031,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12354,11 +13828,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13725,7 +15199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -14246,11 +15720,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15043,7 +16517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -15631,663 +17105,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="21" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>42669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>512</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>728</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>731</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>732</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>736</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>755</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>944</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>945</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>946</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>947</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>949</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>950</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>952</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>953</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>954</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>956</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A30:G30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>